--- a/Logikai topologia.xlsx
+++ b/Logikai topologia.xlsx
@@ -529,37 +529,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Liberation Sans"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Tartalmaz második és harmadik rétegbeli redundáns megoldásokat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
-      <t>IPv4 és IPv6 címzési rendszert egyaránt használ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
+      <t>Tartalmaz második és harmadik rétegbeli redundáns megoldásokat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
@@ -574,11 +555,11 @@
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
-      <t>Vezeték nélküli hálózatot is tartalmaz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>IPv4 és IPv6 címzési rendszert egyaránt használ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
@@ -594,37 +575,17 @@
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
-      <t>Statikus és dinamikus forgalomirányítást egyaránt megvalósít</t>
+      <t>Vezeték nélküli hálózatot is tartalmaz</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
       <t xml:space="preserve">
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Liberation Sans"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Statikus és dinamikus címfordítást alkalmaz
-WAN-összeköttetéseket is tartalmaz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-V</t>
     </r>
     <r>
       <rPr>
@@ -634,12 +595,12 @@
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
-      <t>irtuális magánhálózati kapcsolatot (VPN) is megvalósít</t>
+      <t>Statikus és dinamikus forgalomirányítást egyaránt megvalósít</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
+        <color theme="1"/>
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
@@ -654,45 +615,17 @@
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
-      <t>Programozott hálózatkonfigurációt is használ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve">Statikus és </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
-      <t>Forgalomirányítón megvalósított biztonsági funkciókat tartalmaz (pl. ACL-ek)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-        <charset val="238"/>
-      </rPr>
-      <t>H</t>
+      <t>dinamikus</t>
     </r>
     <r>
       <rPr>
@@ -702,17 +635,37 @@
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
-      <t>ardveres tűzfaleszközt is alkalmaz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
+      <t xml:space="preserve"> címfordítást alkalmaz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>WAN-összeköttetéseket is tartalmaz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+V</t>
     </r>
     <r>
       <rPr>
@@ -722,7 +675,27 @@
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
-      <t>Minimum 1-1 Linux és Windows kiszolgálót tartalmaz, melyek legalább az alábbi szolgáltatásokat nyújtják:</t>
+      <t>irtuális magánhálózati kapcsolatot (VPN) is megvalósít</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Programozott hálózatkonfigurációt is használ</t>
     </r>
     <r>
       <rPr>
@@ -736,19 +709,184 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Liberation Sans"/>
         <charset val="238"/>
       </rPr>
-      <t>­ Címtár (pl. Active Directory)
-­ DHCP
-­ DNS
-­ HTTP/HTTPS
-­ Fájl és nyomtató megosztás
+      <t>Forgalomirányítón megvalósított biztonsági funkciókat tartalmaz (pl. ACL-ek)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ardveres tűzfaleszközt is alkalmaz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Minimum 1-1 Linux és Windows kiszolgálót tartalmaz, melyek legalább az alábbi szolgáltatásokat nyújtják:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>­ Címtár (pl. Active Directory)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>­ DHCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>­ DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>­ HTTP/HTTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>­ Fájl és nyomtató megosztás
 ­ Automatizált mentés
-­ Kliens számítógépekre automatizált szoftvertelepítés
-A benyújtott anyagnak tartalmaznia kell az alábbiakat:
+­ Kliens számítógépekre automatizált szoftvertelepítés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+        <charset val="238"/>
+      </rPr>
+      <t>A benyújtott anyagnak tartalmaznia kell az alábbiakat:
 a hálózat tervét, működésének leírását tartalmazó dokumentáció
 a hálózat tesztelésének dokumentációja
 A prototípus működésének, tesztelésének dokumentálása egy 2-5 perc hosszúságú videóval</t>
@@ -759,7 +897,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -906,14 +1044,36 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Liberation Sans"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Liberation Sans"/>
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Liberation Sans"/>
       <charset val="238"/>
     </font>
@@ -1111,13 +1271,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,25 +1298,14 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1468,79 +1628,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="17">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1640,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1667,21 +1827,21 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -1693,10 +1853,10 @@
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
@@ -1708,10 +1868,10 @@
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
@@ -1723,10 +1883,10 @@
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
@@ -1738,10 +1898,10 @@
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -1753,10 +1913,10 @@
       <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
@@ -1768,10 +1928,10 @@
       <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
@@ -1783,10 +1943,10 @@
       <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
@@ -1798,10 +1958,10 @@
       <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
@@ -1813,10 +1973,10 @@
       <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
@@ -1828,10 +1988,10 @@
       <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
@@ -1843,10 +2003,10 @@
       <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
@@ -1858,10 +2018,10 @@
       <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
@@ -1873,21 +2033,21 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
@@ -1899,10 +2059,10 @@
       <c r="C17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
@@ -1914,10 +2074,10 @@
       <c r="C18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
@@ -1929,10 +2089,10 @@
       <c r="C19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
@@ -1944,10 +2104,10 @@
       <c r="C20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
@@ -1959,10 +2119,10 @@
       <c r="C21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
@@ -2141,11 +2301,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7" t="s">
@@ -2368,42 +2528,42 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2412,308 +2572,308 @@
       <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:9" ht="15.6">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="22" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="C77" s="22"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="C78" s="22"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="C79" s="22"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="C80" s="22"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
     </row>
     <row r="81" spans="3:9">
-      <c r="C81" s="22"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="3:9">
-      <c r="C82" s="22"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
     </row>
     <row r="83" spans="3:9">
-      <c r="C83" s="22"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
     </row>
     <row r="84" spans="3:9">
-      <c r="C84" s="22"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
     </row>
     <row r="85" spans="3:9">
-      <c r="C85" s="22"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
     </row>
     <row r="86" spans="3:9">
-      <c r="C86" s="22"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
     </row>
     <row r="87" spans="3:9">
-      <c r="C87" s="22"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
     </row>
     <row r="88" spans="3:9">
-      <c r="C88" s="22"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
     </row>
     <row r="89" spans="3:9">
-      <c r="C89" s="22"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="90" spans="3:9">
       <c r="C90" s="1"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="3:9">
       <c r="C91" s="1"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
     </row>
     <row r="92" spans="3:9">
       <c r="C92" s="1"/>
@@ -2738,10 +2898,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A38:C38"/>
@@ -2756,6 +2912,10 @@
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
